--- a/data/tradeOff.xlsx
+++ b/data/tradeOff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARG" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Política constante de distanciamiento social con uso de mascarillas faciales</t>
   </si>
@@ -57,13 +57,23 @@
   </si>
   <si>
     <t>muertes_segundo_semestre</t>
+  </si>
+  <si>
+    <t>muertes_primer_semestre_millon</t>
+  </si>
+  <si>
+    <t>muertes_segundo_semestre_millon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +91,20 @@
       <sz val="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,12 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,9 +419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -403,7 +435,7 @@
     <col min="6" max="16384" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -419,8 +451,14 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,8 +474,14 @@
       <c r="E2" s="1">
         <v>318.002642455814</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="F2" s="5">
+        <v>13.922850909762067</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7.0411233938387543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -453,8 +497,14 @@
       <c r="E3" s="1">
         <v>315.13969848317902</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="F3" s="5">
+        <v>13.799123887117737</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6.977732908699088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,8 +520,14 @@
       <c r="E4" s="1">
         <v>196.76965925223499</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="F4" s="5">
+        <v>8.4375534233965261</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.3568174159153488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -487,8 +543,14 @@
       <c r="E5" s="1">
         <v>148.806593003214</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="F5" s="5">
+        <v>6.05456082617909</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.294832945603456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -504,6 +566,15 @@
       <c r="E6" s="1">
         <v>51.4346964335002</v>
       </c>
+      <c r="F6" s="5">
+        <v>1.9311412652513795</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.1388523111509499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -513,10 +584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +599,7 @@
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,15 +615,21 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>-8.2879518840294502</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>-4.1140521346430896</v>
       </c>
       <c r="D2">
@@ -561,15 +638,21 @@
       <c r="E2">
         <v>1505.83439305204</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3">
+        <v>13.982859450595244</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.0422802575900469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>-8.2993731875668697</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>-4.1143492303654403</v>
       </c>
       <c r="D3">
@@ -578,15 +661,21 @@
       <c r="E3">
         <v>1499.88507028344</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>13.927872953124794</v>
+      </c>
+      <c r="G3" s="3">
+        <v>7.0144572788663195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>-14.014148891427901</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>-9.0020412941440799</v>
       </c>
       <c r="D4">
@@ -595,15 +684,21 @@
       <c r="E4">
         <v>1009.94500819378</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>9.2990162091437814</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.723172631247559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>-19.712171729488599</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>-14.135172083766401</v>
       </c>
       <c r="D5">
@@ -612,15 +707,21 @@
       <c r="E5">
         <v>803.05598047281205</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>7.2763756613443844</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.7556223334499572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>-27.462673391368401</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>-19.346794660508099</v>
       </c>
       <c r="D6">
@@ -629,6 +730,15 @@
       <c r="E6">
         <v>326.14335203710198</v>
       </c>
+      <c r="F6" s="3">
+        <v>2.8525707085217764</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.5252626050995963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -637,10 +747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F2" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +762,7 @@
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -668,8 +778,14 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,8 +801,14 @@
       <c r="E2">
         <v>637.63160959769198</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3">
+        <v>10.041727565006772</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.0451069991335915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -702,8 +824,14 @@
       <c r="E3">
         <v>635.88435047674898</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>10.014311113747423</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.0312822309011453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -719,8 +847,14 @@
       <c r="E4">
         <v>415.49179283653802</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>6.5121080178674973</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.287479040514885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +870,14 @@
       <c r="E5">
         <v>334.04590413072401</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>5.2066297673483062</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.6430580033903084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,17 +893,30 @@
       <c r="E6">
         <v>172.69909819990201</v>
       </c>
+      <c r="F6" s="3">
+        <v>2.6990138256603244</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.3664401449955013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -773,10 +926,11 @@
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="45.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,8 +946,14 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,14 +963,20 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>46.058488781937498</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>23.2885827901518</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3">
+        <v>16.295825563822749</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8.2396685782228118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -820,14 +986,20 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>45.861537350273402</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>23.1870386601463</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>16.22614272663418</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8.2037415325606293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,14 +1009,20 @@
       <c r="C4">
         <v>-2.70836558738123</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>31.205249129356901</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>16.076929888800901</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>11.040642234164084</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5.6881337620536465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -854,14 +1032,20 @@
       <c r="C5">
         <v>-9.0256858654380103</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>24.202504255767</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>13.025043803617599</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>8.5630205851288466</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.6083544510071119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -871,11 +1055,17 @@
       <c r="C6">
         <v>-15.343642713707901</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>6.0635112374592897</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>5.4641952988964899</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.1453140136170807</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.9332717115199238</v>
       </c>
     </row>
   </sheetData>
